--- a/Finalize logic tree/Ford_F-150_ABS light on.xlsx
+++ b/Finalize logic tree/Ford_F-150_ABS light on.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D5001B-ABD0-415B-A4AD-09D4AEDD00A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542334CE-5BA0-4380-9679-3245B00FA610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AC070927-8AF2-45B5-83D3-AEE35BECAEF1}"/>
   </bookViews>
@@ -100,9 +100,6 @@
 5% Stop Lamp Switch</t>
   </si>
   <si>
-    <t>Stop &amp; Go</t>
-  </si>
-  <si>
     <t>Possible_Problem:35% ABS Front Wheel Speed Sensor
 20% Rear Wheel Speed Sensor
 15% Speed Sensor Tone Ring
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>Problem:Does the ABS light seem to light up when you aren't driving on slippery surfaces?</t>
+  </si>
+  <si>
+    <t>Stop and Go</t>
   </si>
 </sst>
 </file>
@@ -530,15 +530,15 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="5" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -560,18 +560,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -593,46 +593,46 @@
     </row>
     <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
